--- a/Data/layers/layers_sai_2023.xlsx
+++ b/Data/layers/layers_sai_2023.xlsx
@@ -534,46 +534,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002820512820512821</v>
+        <v>0.002291666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02231481481481482</v>
+        <v>0.01785185185185185</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007692307692307693</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03606060606060606</v>
+        <v>0.02644444444444444</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01240740740740741</v>
+        <v>0.01063492063492063</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03700854700854701</v>
+        <v>0.03006944444444444</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02324074074074074</v>
+        <v>0.01640522875816993</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006574074074074074</v>
+        <v>0.004930555555555555</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00246031746031746</v>
+        <v>0.002026143790849673</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01606060606060606</v>
+        <v>0.01104166666666667</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005656565656565657</v>
+        <v>0.003660130718954248</v>
       </c>
       <c r="N2" t="n">
-        <v>0.005</v>
+        <v>0.003529411764705882</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01341880341880342</v>
+        <v>0.01090277777777778</v>
       </c>
       <c r="P2" t="n">
-        <v>0.006752136752136752</v>
+        <v>0.005851851851851852</v>
       </c>
     </row>
     <row r="3">
@@ -583,49 +583,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002820512820512821</v>
+        <v>0.002291666666666667</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002814814814814815</v>
+        <v>0.003247863247863248</v>
       </c>
       <c r="E3" t="n">
-        <v>0.009791666666666667</v>
+        <v>0.01044444444444444</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01095238095238095</v>
+        <v>0.0117948717948718</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006222222222222222</v>
+        <v>0.007777777777777778</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.0009523809523809524</v>
       </c>
       <c r="I3" t="n">
         <v>0.001185185185185185</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00362962962962963</v>
+        <v>0.003888888888888889</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001830065359477124</v>
+        <v>0.002074074074074074</v>
       </c>
       <c r="L3" t="n">
         <v>0.001507936507936508</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04841269841269841</v>
+        <v>0.04518518518518518</v>
       </c>
       <c r="N3" t="n">
         <v>0.007481481481481481</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004305555555555556</v>
+        <v>0.004920634920634921</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02166666666666667</v>
+        <v>0.02666666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -635,34 +635,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02231481481481482</v>
+        <v>0.01785185185185185</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002814814814814815</v>
+        <v>0.003247863247863248</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003037037037037037</v>
+        <v>0.003253968253968254</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00623931623931624</v>
+        <v>0.006759259259259259</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01</v>
+        <v>0.01272727272727273</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007407407407407408</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="I4" t="n">
         <v>0.01333333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001111111111111111</v>
+        <v>0.001196581196581197</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002430555555555556</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="L4" t="n">
         <v>0.03760683760683761</v>
@@ -674,10 +674,10 @@
         <v>0.003253968253968254</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03896296296296296</v>
+        <v>0.04495726495726496</v>
       </c>
       <c r="P4" t="n">
-        <v>0.001407407407407407</v>
+        <v>0.001759259259259259</v>
       </c>
     </row>
     <row r="5">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.007692307692307693</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009791666666666667</v>
+        <v>0.01044444444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003037037037037037</v>
+        <v>0.003253968253968254</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -702,34 +702,34 @@
         <v>0.05444444444444444</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00237037037037037</v>
+        <v>0.002735042735042735</v>
       </c>
       <c r="H5" t="n">
-        <v>0.009722222222222222</v>
+        <v>0.01037037037037037</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003185185185185185</v>
+        <v>0.002986111111111111</v>
       </c>
       <c r="J5" t="n">
         <v>0.0242962962962963</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005359477124183006</v>
+        <v>0.005694444444444445</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008253968253968255</v>
+        <v>0.007703703703703704</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01761904761904762</v>
+        <v>0.01541666666666667</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002666666666666667</v>
+        <v>0.0025</v>
       </c>
       <c r="O5" t="n">
-        <v>0.003125</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02423611111111111</v>
+        <v>0.0276984126984127</v>
       </c>
     </row>
     <row r="6">
@@ -739,13 +739,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03606060606060606</v>
+        <v>0.02644444444444444</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01095238095238095</v>
+        <v>0.0117948717948718</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00623931623931624</v>
+        <v>0.006759259259259259</v>
       </c>
       <c r="E6" t="n">
         <v>0.05444444444444444</v>
@@ -754,34 +754,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01068376068376068</v>
+        <v>0.01262626262626263</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007857142857142858</v>
+        <v>0.008461538461538461</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0003418803418803419</v>
+        <v>0.0003174603174603175</v>
       </c>
       <c r="J6" t="n">
         <v>0.002735042735042735</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01466666666666667</v>
+        <v>0.01571428571428572</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01490740740740741</v>
+        <v>0.01376068376068376</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001759259259259259</v>
+        <v>0.001507936507936508</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002905982905982906</v>
+        <v>0.002698412698412699</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001746031746031746</v>
+        <v>0.00188034188034188</v>
       </c>
       <c r="P6" t="n">
-        <v>0.004920634920634921</v>
+        <v>0.005740740740740741</v>
       </c>
     </row>
     <row r="7">
@@ -791,49 +791,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01240740740740741</v>
+        <v>0.01063492063492063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006222222222222222</v>
+        <v>0.007777777777777778</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01</v>
+        <v>0.01272727272727273</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00237037037037037</v>
+        <v>0.002735042735042735</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01068376068376068</v>
+        <v>0.01262626262626263</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0173015873015873</v>
+        <v>0.01863247863247863</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0003174603174603175</v>
+        <v>0.0003703703703703704</v>
       </c>
       <c r="K7" t="n">
-        <v>0.007916666666666667</v>
+        <v>0.009743589743589744</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01102564102564102</v>
+        <v>0.01194444444444445</v>
       </c>
       <c r="M7" t="n">
         <v>0.0006837606837606838</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001507936507936508</v>
+        <v>0.001623931623931624</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003259259259259259</v>
+        <v>0.004074074074074074</v>
       </c>
       <c r="P7" t="n">
-        <v>0.005851851851851852</v>
+        <v>0.007979797979797979</v>
       </c>
     </row>
     <row r="8">
@@ -843,22 +843,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03700854700854701</v>
+        <v>0.03006944444444444</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.0009523809523809524</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007407407407407408</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="E8" t="n">
-        <v>0.009722222222222222</v>
+        <v>0.01037037037037037</v>
       </c>
       <c r="F8" t="n">
-        <v>0.007857142857142858</v>
+        <v>0.008461538461538461</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0.01985185185185185</v>
       </c>
       <c r="J8" t="n">
-        <v>0.009777777777777778</v>
+        <v>0.01047619047619048</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001176470588235294</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="L8" t="n">
         <v>0.002142857142857143</v>
@@ -882,10 +882,10 @@
         <v>0.006962962962962963</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.0126984126984127</v>
       </c>
       <c r="P8" t="n">
-        <v>0.004791666666666666</v>
+        <v>0.005897435897435898</v>
       </c>
     </row>
     <row r="9">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02324074074074074</v>
+        <v>0.01640522875816993</v>
       </c>
       <c r="C9" t="n">
         <v>0.001185185185185185</v>
@@ -904,13 +904,13 @@
         <v>0.01333333333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003185185185185185</v>
+        <v>0.002986111111111111</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0003418803418803419</v>
+        <v>0.0003174603174603175</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0173015873015873</v>
+        <v>0.01863247863247863</v>
       </c>
       <c r="H9" t="n">
         <v>0.01985185185185185</v>
@@ -919,25 +919,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0006349206349206349</v>
+        <v>0.0005925925925925926</v>
       </c>
       <c r="K9" t="n">
         <v>0.002777777777777778</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003675213675213675</v>
+        <v>0.003185185185185185</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00188034188034188</v>
+        <v>0.001527777777777778</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001458333333333333</v>
       </c>
       <c r="O9" t="n">
         <v>0.02074074074074074</v>
       </c>
       <c r="P9" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.007142857142857143</v>
       </c>
     </row>
     <row r="10">
@@ -947,13 +947,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.006574074074074074</v>
+        <v>0.004930555555555555</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00362962962962963</v>
+        <v>0.003888888888888889</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001111111111111111</v>
+        <v>0.001196581196581197</v>
       </c>
       <c r="E10" t="n">
         <v>0.0242962962962963</v>
@@ -962,34 +962,34 @@
         <v>0.002735042735042735</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0003174603174603175</v>
+        <v>0.0003703703703703704</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009777777777777778</v>
+        <v>0.01047619047619048</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0006349206349206349</v>
+        <v>0.0005925925925925926</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002569444444444445</v>
+        <v>0.002740740740740741</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003247863247863248</v>
+        <v>0.003015873015873016</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02905982905982906</v>
+        <v>0.02518518518518519</v>
       </c>
       <c r="N10" t="n">
-        <v>0.007857142857142858</v>
+        <v>0.007333333333333333</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006148148148148148</v>
+        <v>0.006587301587301587</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01</v>
+        <v>0.01153846153846154</v>
       </c>
     </row>
     <row r="11">
@@ -999,31 +999,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.00246031746031746</v>
+        <v>0.002026143790849673</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001830065359477124</v>
+        <v>0.002074074074074074</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002430555555555556</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="E11" t="n">
-        <v>0.005359477124183006</v>
+        <v>0.005694444444444445</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01466666666666667</v>
+        <v>0.01571428571428572</v>
       </c>
       <c r="G11" t="n">
-        <v>0.007916666666666667</v>
+        <v>0.009743589743589744</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001176470588235294</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="I11" t="n">
         <v>0.002777777777777778</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002569444444444445</v>
+        <v>0.002740740740740741</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0.01022222222222222</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001777777777777778</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N11" t="n">
         <v>0.01034722222222222</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004248366013071895</v>
+        <v>0.004814814814814815</v>
       </c>
       <c r="P11" t="n">
-        <v>0.001633986928104575</v>
+        <v>0.001984126984126984</v>
       </c>
     </row>
     <row r="12">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01606060606060606</v>
+        <v>0.01104166666666667</v>
       </c>
       <c r="C12" t="n">
         <v>0.001507936507936508</v>
@@ -1060,22 +1060,22 @@
         <v>0.03760683760683761</v>
       </c>
       <c r="E12" t="n">
-        <v>0.008253968253968255</v>
+        <v>0.007703703703703704</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01490740740740741</v>
+        <v>0.01376068376068376</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01102564102564102</v>
+        <v>0.01194444444444445</v>
       </c>
       <c r="H12" t="n">
         <v>0.002142857142857143</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003675213675213675</v>
+        <v>0.003185185185185185</v>
       </c>
       <c r="J12" t="n">
-        <v>0.003247863247863248</v>
+        <v>0.003015873015873016</v>
       </c>
       <c r="K12" t="n">
         <v>0.01022222222222222</v>
@@ -1084,16 +1084,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0005555555555555556</v>
+        <v>0.0004444444444444445</v>
       </c>
       <c r="N12" t="n">
-        <v>0.002735042735042735</v>
+        <v>0.00237037037037037</v>
       </c>
       <c r="O12" t="n">
         <v>0.02587301587301587</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0002380952380952381</v>
+        <v>0.0002564102564102564</v>
       </c>
     </row>
     <row r="13">
@@ -1103,19 +1103,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.005656565656565657</v>
+        <v>0.003660130718954248</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04841269841269841</v>
+        <v>0.04518518518518518</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01761904761904762</v>
+        <v>0.01541666666666667</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001759259259259259</v>
+        <v>0.001507936507936508</v>
       </c>
       <c r="G13" t="n">
         <v>0.0006837606837606838</v>
@@ -1124,25 +1124,25 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00188034188034188</v>
+        <v>0.001527777777777778</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02905982905982906</v>
+        <v>0.02518518518518519</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001777777777777778</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0005555555555555556</v>
+        <v>0.0004444444444444445</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.003247863247863248</v>
+        <v>0.002638888888888889</v>
       </c>
       <c r="O13" t="n">
-        <v>0.00126984126984127</v>
+        <v>0.001185185185185185</v>
       </c>
       <c r="P13" t="n">
         <v>0.005</v>
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.005</v>
+        <v>0.003529411764705882</v>
       </c>
       <c r="C14" t="n">
         <v>0.007481481481481481</v>
@@ -1164,31 +1164,31 @@
         <v>0.003253968253968254</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002666666666666667</v>
+        <v>0.0025</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002905982905982906</v>
+        <v>0.002698412698412699</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001507936507936508</v>
+        <v>0.001623931623931624</v>
       </c>
       <c r="H14" t="n">
         <v>0.006962962962962963</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001458333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>0.007857142857142858</v>
+        <v>0.007333333333333333</v>
       </c>
       <c r="K14" t="n">
         <v>0.01034722222222222</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002735042735042735</v>
+        <v>0.00237037037037037</v>
       </c>
       <c r="M14" t="n">
-        <v>0.003247863247863248</v>
+        <v>0.002638888888888889</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0.000962962962962963</v>
       </c>
       <c r="P14" t="n">
-        <v>0.001111111111111111</v>
+        <v>0.001190476190476191</v>
       </c>
     </row>
     <row r="15">
@@ -1207,40 +1207,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01341880341880342</v>
+        <v>0.01090277777777778</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004305555555555556</v>
+        <v>0.004920634920634921</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03896296296296296</v>
+        <v>0.04495726495726496</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003125</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001746031746031746</v>
+        <v>0.00188034188034188</v>
       </c>
       <c r="G15" t="n">
-        <v>0.003259259259259259</v>
+        <v>0.004074074074074074</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.0126984126984127</v>
       </c>
       <c r="I15" t="n">
         <v>0.02074074074074074</v>
       </c>
       <c r="J15" t="n">
-        <v>0.006148148148148148</v>
+        <v>0.006587301587301587</v>
       </c>
       <c r="K15" t="n">
-        <v>0.004248366013071895</v>
+        <v>0.004814814814814815</v>
       </c>
       <c r="L15" t="n">
         <v>0.02587301587301587</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00126984126984127</v>
+        <v>0.001185185185185185</v>
       </c>
       <c r="N15" t="n">
         <v>0.000962962962962963</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.002291666666666667</v>
+        <v>0.002820512820512821</v>
       </c>
     </row>
     <row r="16">
@@ -1259,46 +1259,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.006752136752136752</v>
+        <v>0.005851851851851852</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02166666666666667</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001407407407407407</v>
+        <v>0.001759259259259259</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02423611111111111</v>
+        <v>0.0276984126984127</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004920634920634921</v>
+        <v>0.005740740740740741</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005851851851851852</v>
+        <v>0.007979797979797979</v>
       </c>
       <c r="H16" t="n">
-        <v>0.004791666666666666</v>
+        <v>0.005897435897435898</v>
       </c>
       <c r="I16" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01</v>
+        <v>0.01153846153846154</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001633986928104575</v>
+        <v>0.001984126984126984</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002380952380952381</v>
+        <v>0.0002564102564102564</v>
       </c>
       <c r="M16" t="n">
         <v>0.005</v>
       </c>
       <c r="N16" t="n">
-        <v>0.001111111111111111</v>
+        <v>0.001190476190476191</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002291666666666667</v>
+        <v>0.002820512820512821</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1410,46 +1410,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01235474627823451</v>
+        <v>0.01254692672251558</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007907037618070085</v>
+        <v>0.007528156033509348</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02383739281918187</v>
+        <v>0.02572119978115693</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5171071068677158</v>
+        <v>0.5170713928087007</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01094277527500771</v>
+        <v>0.00915187596230548</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1113891008604381</v>
+        <v>0.1376206992037348</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01889549430788807</v>
+        <v>0.02174800631902701</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04602142988642354</v>
+        <v>0.04673730204137053</v>
       </c>
       <c r="K2" t="n">
-        <v>0.008139597548013322</v>
+        <v>0.009368371952811632</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01142814030736692</v>
+        <v>0.01237963436621537</v>
       </c>
       <c r="M2" t="n">
-        <v>0.007267497810726182</v>
+        <v>0.008962090516082556</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00523259842372285</v>
+        <v>0.006022524826807478</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01081040299345519</v>
+        <v>0.01254692672251558</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5539503658022177</v>
+        <v>0.5937806170398218</v>
       </c>
     </row>
     <row r="3">
@@ -1459,49 +1459,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01235474627823451</v>
+        <v>0.01254692672251558</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.008363212865266437</v>
+        <v>0.006900809697383569</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01416677573237557</v>
+        <v>0.01348794622670425</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01634627969120258</v>
+        <v>0.01438714264181786</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1887463683078615</v>
+        <v>0.1342727919580612</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08326116286157241</v>
+        <v>0.09094425290918724</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3230646562320594</v>
+        <v>0.3241360183647937</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007412847766940705</v>
+        <v>0.006587136529320679</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005271358412046723</v>
+        <v>0.005353355401606647</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002823942006453601</v>
+        <v>0.002676677700803323</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02965139106776282</v>
+        <v>0.0322635258578972</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3491407549870125</v>
+        <v>0.3501033162030545</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07633638873694744</v>
+        <v>0.07723202323688935</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00152058415732117</v>
+        <v>0.001433934482573209</v>
       </c>
     </row>
     <row r="4">
@@ -1511,40 +1511,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007907037618070085</v>
+        <v>0.007528156033509348</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008363212865266437</v>
+        <v>0.006900809697383569</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8795747752644839</v>
+        <v>0.7695902093875611</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002470949255646902</v>
+        <v>0.002007508275602493</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02515875605749572</v>
+        <v>0.016532421093197</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00304116831464234</v>
+        <v>0.003088474270157681</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005647884012907203</v>
+        <v>0.005353355401606647</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01444554949455112</v>
+        <v>0.0119195803863898</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4859706606591226</v>
+        <v>0.4563008486682294</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3738347738029717</v>
+        <v>0.3253986685627225</v>
       </c>
       <c r="M4" t="n">
-        <v>0.205822970005035</v>
+        <v>0.2058797094310851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06302617551785995</v>
+        <v>0.05405223037226321</v>
       </c>
     </row>
     <row r="5">
@@ -1563,49 +1563,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02383739281918187</v>
+        <v>0.02572119978115693</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01416677573237557</v>
+        <v>0.01348794622670425</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8795747752644839</v>
+        <v>0.7695902093875611</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03671124608389683</v>
+        <v>0.03479681011044321</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03421314353972633</v>
+        <v>0.02656996247120946</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01054271682409345</v>
+        <v>0.01235389708063073</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01389908956301382</v>
+        <v>0.0150563120670187</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01186055642710513</v>
+        <v>0.01129223405026402</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9234624364579275</v>
+        <v>0.9842707412768216</v>
       </c>
       <c r="L5" t="n">
-        <v>1.308658733975815</v>
+        <v>1.308448472794123</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6658823553436246</v>
+        <v>0.7619200241034579</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04324161197382077</v>
+        <v>0.04684185976405816</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01350785593086973</v>
+        <v>0.01469782844637539</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2421530270533963</v>
+        <v>0.2459197637613053</v>
       </c>
     </row>
     <row r="6">
@@ -1615,49 +1615,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5171071068677158</v>
+        <v>0.5170713928087007</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01634627969120258</v>
+        <v>0.01438714264181786</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002470949255646902</v>
+        <v>0.002007508275602493</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03671124608389683</v>
+        <v>0.03479681011044321</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1228204775214082</v>
+        <v>0.08514734476842965</v>
       </c>
       <c r="H6" t="n">
-        <v>1.170733377493163</v>
+        <v>1.267206712774656</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2765794623172059</v>
+        <v>0.2781150822562546</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01216467325856936</v>
+        <v>0.01070671080321329</v>
       </c>
       <c r="K6" t="n">
-        <v>0.006706862265327305</v>
+        <v>0.006811188792222742</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01444554949455112</v>
+        <v>0.01362237758444548</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001058978252420101</v>
+        <v>0.00115817785130913</v>
       </c>
       <c r="N6" t="n">
-        <v>0.009530804271780905</v>
+        <v>0.009679057757369164</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1774553039899401</v>
+        <v>0.1800410784297581</v>
       </c>
       <c r="P6" t="n">
-        <v>1.516263280542616</v>
+        <v>1.398471367022837</v>
       </c>
     </row>
     <row r="7">
@@ -1667,49 +1667,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01094277527500771</v>
+        <v>0.00915187596230548</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1887463683078615</v>
+        <v>0.1342727919580612</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02515875605749572</v>
+        <v>0.016532421093197</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03421314353972633</v>
+        <v>0.02656996247120946</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1228204775214082</v>
+        <v>0.08514734476842965</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1170102165960896</v>
+        <v>0.1009467717358478</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8559433757991554</v>
+        <v>0.695189195923627</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02223854330082211</v>
+        <v>0.01594197748272568</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01254481929789966</v>
+        <v>0.01035121454607535</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02923956619182167</v>
+        <v>0.02227079493246515</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03003153710709311</v>
+        <v>0.02643219229543282</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6150474984898379</v>
+        <v>0.5012299383928441</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09924979510181721</v>
+        <v>0.08063491573670012</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3819960123173564</v>
+        <v>0.2817039732119273</v>
       </c>
     </row>
     <row r="8">
@@ -1719,49 +1719,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1113891008604381</v>
+        <v>0.1376206992037348</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08326116286157241</v>
+        <v>0.09094425290918724</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00304116831464234</v>
+        <v>0.003088474270157681</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01054271682409345</v>
+        <v>0.01235389708063073</v>
       </c>
       <c r="F8" t="n">
-        <v>1.170733377493163</v>
+        <v>1.267206712774656</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1170102165960896</v>
+        <v>0.1009467717358478</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01449623563312849</v>
+        <v>0.01840215919302285</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006706862265327305</v>
+        <v>0.007335126391624493</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02767463166324529</v>
+        <v>0.03513139482304362</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001411971003226801</v>
+        <v>0.001672923563002077</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0260273321594807</v>
+        <v>0.03604389858468111</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01779083464065769</v>
+        <v>0.02258446810052804</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04447708660164423</v>
+        <v>0.05748773698316229</v>
       </c>
       <c r="P8" t="n">
-        <v>1.061867101591269</v>
+        <v>1.253919062200533</v>
       </c>
     </row>
     <row r="9">
@@ -1771,49 +1771,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01889549430788807</v>
+        <v>0.02174800631902701</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3230646562320594</v>
+        <v>0.3241360183647937</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005647884012907203</v>
+        <v>0.005353355401606647</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01389908956301382</v>
+        <v>0.0150563120670187</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2765794623172059</v>
+        <v>0.2781150822562546</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8559433757991554</v>
+        <v>0.695189195923627</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01449623563312849</v>
+        <v>0.01840215919302285</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01134877107778516</v>
+        <v>0.01140426347309145</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01914985673126349</v>
+        <v>0.02222598447988474</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02734517176249238</v>
+        <v>0.02975414051339409</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01019266567954347</v>
+        <v>0.01273995636440044</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3215623942865801</v>
+        <v>0.3678884926223944</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2245229024640157</v>
+        <v>0.2620821459751643</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01028933779203212</v>
+        <v>0.0112066358618898</v>
       </c>
     </row>
     <row r="10">
@@ -1823,49 +1823,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04602142988642354</v>
+        <v>0.04673730204137053</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007412847766940705</v>
+        <v>0.006587136529320679</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01444554949455112</v>
+        <v>0.0119195803863898</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01186055642710513</v>
+        <v>0.01129223405026402</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01216467325856936</v>
+        <v>0.01070671080321329</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02223854330082211</v>
+        <v>0.01594197748272568</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006706862265327305</v>
+        <v>0.007335126391624493</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01134877107778516</v>
+        <v>0.01140426347309145</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03327544997604494</v>
+        <v>0.03379305597264196</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03494628232986332</v>
+        <v>0.03312388654744113</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004941898511293803</v>
+        <v>0.005377254309649534</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0309692306707745</v>
+        <v>0.03145096298443905</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01447270278307471</v>
+        <v>0.01469782844637539</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2113106741309974</v>
+        <v>0.1961135649868298</v>
       </c>
     </row>
     <row r="11">
@@ -1875,49 +1875,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.008139597548013322</v>
+        <v>0.009368371952811632</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005271358412046723</v>
+        <v>0.005353355401606647</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4859706606591226</v>
+        <v>0.4563008486682294</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9234624364579275</v>
+        <v>0.9842707412768216</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006706862265327305</v>
+        <v>0.006811188792222742</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01254481929789966</v>
+        <v>0.01035121454607535</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02767463166324529</v>
+        <v>0.03513139482304362</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01914985673126349</v>
+        <v>0.02222598447988474</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03327544997604494</v>
+        <v>0.03379305597264196</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1992653206741537</v>
+        <v>0.2134585498300896</v>
       </c>
       <c r="M11" t="n">
-        <v>0.401631331868858</v>
+        <v>0.4955685928568402</v>
       </c>
       <c r="N11" t="n">
-        <v>0.003706423883470352</v>
+        <v>0.004301803447719627</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01251947622861097</v>
+        <v>0.01467025278324899</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04871299961132464</v>
+        <v>0.05327618116021999</v>
       </c>
     </row>
     <row r="12">
@@ -1927,49 +1927,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01142814030736692</v>
+        <v>0.01237963436621537</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002823942006453601</v>
+        <v>0.002676677700803323</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3738347738029717</v>
+        <v>0.3253986685627225</v>
       </c>
       <c r="E12" t="n">
-        <v>1.308658733975815</v>
+        <v>1.308448472794123</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01444554949455112</v>
+        <v>0.01362237758444548</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02923956619182167</v>
+        <v>0.02227079493246515</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001411971003226801</v>
+        <v>0.001672923563002077</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02734517176249238</v>
+        <v>0.02975414051339409</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03494628232986332</v>
+        <v>0.03312388654744113</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1992653206741537</v>
+        <v>0.2134585498300896</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>19.09182918208819</v>
+        <v>18.39467612020213</v>
       </c>
       <c r="N12" t="n">
-        <v>0.04348870689938547</v>
+        <v>0.04731983792491589</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004941898511293803</v>
+        <v>0.005404829972775942</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01216467325856936</v>
+        <v>0.01235389708063073</v>
       </c>
     </row>
     <row r="13">
@@ -1979,49 +1979,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.007267497810726182</v>
+        <v>0.008962090516082556</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02965139106776282</v>
+        <v>0.0322635258578972</v>
       </c>
       <c r="D13" t="n">
-        <v>0.205822970005035</v>
+        <v>0.2058797094310851</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6658823553436246</v>
+        <v>0.7619200241034579</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001058978252420101</v>
+        <v>0.00115817785130913</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03003153710709311</v>
+        <v>0.02643219229543282</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0260273321594807</v>
+        <v>0.03604389858468111</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01019266567954347</v>
+        <v>0.01273995636440044</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004941898511293803</v>
+        <v>0.005377254309649534</v>
       </c>
       <c r="K13" t="n">
-        <v>0.401631331868858</v>
+        <v>0.4955685928568402</v>
       </c>
       <c r="L13" t="n">
-        <v>19.09182918208819</v>
+        <v>18.39467612020213</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02407201247370343</v>
+        <v>0.03002975510380521</v>
       </c>
       <c r="O13" t="n">
-        <v>18.7562597381143</v>
+        <v>19.50794638692426</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02188555055001541</v>
+        <v>0.02593031522653219</v>
       </c>
     </row>
     <row r="14">
@@ -2031,49 +2031,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.00523259842372285</v>
+        <v>0.006022524826807478</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3491407549870125</v>
+        <v>0.3501033162030545</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04324161197382077</v>
+        <v>0.04684185976405816</v>
       </c>
       <c r="F14" t="n">
-        <v>0.009530804271780905</v>
+        <v>0.009679057757369164</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6150474984898379</v>
+        <v>0.5012299383928441</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01779083464065769</v>
+        <v>0.02258446810052804</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3215623942865801</v>
+        <v>0.3678884926223944</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0309692306707745</v>
+        <v>0.03145096298443905</v>
       </c>
       <c r="K14" t="n">
-        <v>0.003706423883470352</v>
+        <v>0.004301803447719627</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04348870689938547</v>
+        <v>0.04731983792491589</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02407201247370343</v>
+        <v>0.03002975510380521</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03294599007529202</v>
+        <v>0.03860592837697102</v>
       </c>
       <c r="P14" t="n">
-        <v>0.03494628232986332</v>
+        <v>0.0382198690932013</v>
       </c>
     </row>
     <row r="15">
@@ -2083,49 +2083,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01081040299345519</v>
+        <v>0.01254692672251558</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07633638873694744</v>
+        <v>0.07723202323688935</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01350785593086973</v>
+        <v>0.01469782844637539</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1774553039899401</v>
+        <v>0.1800410784297581</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09924979510181721</v>
+        <v>0.08063491573670012</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04447708660164423</v>
+        <v>0.05748773698316229</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2245229024640157</v>
+        <v>0.2620821459751643</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01447270278307471</v>
+        <v>0.01469782844637539</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01251947622861097</v>
+        <v>0.01467025278324899</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004941898511293803</v>
+        <v>0.005404829972775942</v>
       </c>
       <c r="M15" t="n">
-        <v>18.7562597381143</v>
+        <v>19.50794638692426</v>
       </c>
       <c r="N15" t="n">
-        <v>0.03294599007529202</v>
+        <v>0.03860592837697102</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0379417075557227</v>
+        <v>0.04155376472679736</v>
       </c>
     </row>
     <row r="16">
@@ -2135,46 +2135,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5539503658022177</v>
+        <v>0.5937806170398218</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00152058415732117</v>
+        <v>0.001433934482573209</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06302617551785995</v>
+        <v>0.05405223037226321</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2421530270533963</v>
+        <v>0.2459197637613053</v>
       </c>
       <c r="F16" t="n">
-        <v>1.516263280542616</v>
+        <v>1.398471367022837</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3819960123173564</v>
+        <v>0.2817039732119273</v>
       </c>
       <c r="H16" t="n">
-        <v>1.061867101591269</v>
+        <v>1.253919062200533</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01028933779203212</v>
+        <v>0.0112066358618898</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2113106741309974</v>
+        <v>0.1961135649868298</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04871299961132464</v>
+        <v>0.05327618116021999</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01216467325856936</v>
+        <v>0.01235389708063073</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02188555055001541</v>
+        <v>0.02593031522653219</v>
       </c>
       <c r="N16" t="n">
-        <v>0.03494628232986332</v>
+        <v>0.0382198690932013</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0379417075557227</v>
+        <v>0.04155376472679736</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -2300,16 +2300,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02787878787878788</v>
+        <v>0.02044444444444445</v>
       </c>
       <c r="G2" t="n">
-        <v>0.007777777777777778</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05666666666666666</v>
+        <v>0.04604166666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01074074074074074</v>
+        <v>0.007581699346405229</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006464646464646465</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1001709401709402</v>
+        <v>0.08138888888888889</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1106944444444444</v>
+        <v>0.1180740740740741</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02303703703703704</v>
+        <v>0.02468253968253968</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03404761904761905</v>
+        <v>0.03177777777777778</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03840277777777778</v>
+        <v>0.04726495726495727</v>
       </c>
     </row>
     <row r="4">
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001282051282051282</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006444444444444444</v>
+        <v>0.007435897435897436</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1106944444444444</v>
+        <v>0.1180740740740741</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1007936507936508</v>
+        <v>0.08819444444444445</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07020833333333333</v>
+        <v>0.08023809523809523</v>
       </c>
     </row>
     <row r="6">
@@ -2496,13 +2496,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02787878787878788</v>
+        <v>0.02044444444444445</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001282051282051282</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1276068376068376</v>
+        <v>0.1508080808080808</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06148148148148148</v>
+        <v>0.06587301587301587</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1824074074074074</v>
+        <v>0.1683760683760684</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006944444444444444</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02495726495726496</v>
+        <v>0.02317460317460317</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0003174603174603175</v>
+        <v>0.0003418803418803419</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.007777777777777778</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1276068376068376</v>
+        <v>0.1508080808080808</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -2569,16 +2569,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0007936507936507937</v>
+        <v>0.0008547008547008547</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.009583333333333333</v>
+        <v>0.0117948717948718</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1411111111111111</v>
+        <v>0.1528703703703704</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05666666666666666</v>
+        <v>0.04604166666666667</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2639,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03423611111111111</v>
+        <v>0.03912698412698413</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0003472222222222222</v>
+        <v>0.0004273504273504274</v>
       </c>
     </row>
     <row r="9">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01074074074074074</v>
+        <v>0.007581699346405229</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0007936507936507937</v>
+        <v>0.0008547008547008547</v>
       </c>
       <c r="H9" t="n">
         <v>0.03281481481481482</v>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02303703703703704</v>
+        <v>0.02468253968253968</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03740740740740741</v>
+        <v>0.04316239316239316</v>
       </c>
     </row>
     <row r="11">
@@ -2768,10 +2768,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06148148148148148</v>
+        <v>0.06587301587301587</v>
       </c>
       <c r="G11" t="n">
-        <v>0.009583333333333333</v>
+        <v>0.0117948717948718</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.006464646464646465</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2820,10 +2820,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1824074074074074</v>
+        <v>0.1683760683760684</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1411111111111111</v>
+        <v>0.1528703703703704</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -2863,16 +2863,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03404761904761905</v>
+        <v>0.03177777777777778</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1007936507936508</v>
+        <v>0.08819444444444445</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006944444444444444</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02495726495726496</v>
+        <v>0.02317460317460317</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2964,25 +2964,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1001709401709402</v>
+        <v>0.08138888888888889</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.006444444444444444</v>
+        <v>0.007435897435897436</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0003174603174603175</v>
+        <v>0.0003418803418803419</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03423611111111111</v>
+        <v>0.03912698412698413</v>
       </c>
       <c r="I15" t="n">
         <v>0.02903703703703704</v>
@@ -3019,13 +3019,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03840277777777778</v>
+        <v>0.04726495726495727</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07020833333333333</v>
+        <v>0.08023809523809523</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0003472222222222222</v>
+        <v>0.0004273504273504274</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03740740740740741</v>
+        <v>0.04316239316239316</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>7.407407407407407e-05</v>
+        <v>9.259259259259259e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>7.407407407407407e-05</v>
+        <v>8.547008547008547e-05</v>
       </c>
     </row>
     <row r="11">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>7.407407407407407e-05</v>
+        <v>9.259259259259259e-05</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>7.407407407407407e-05</v>
+        <v>8.547008547008547e-05</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
